--- a/AMZN_DCF_WACC_Model_FY23-30.xlsx
+++ b/AMZN_DCF_WACC_Model_FY23-30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06A1E8AD-9EBA-4410-A54E-549864AF052D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89228090-BC71-4FD0-9FC3-07B1F6104741}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{226BCD0F-2437-4C8A-9873-F9CE86B33DF7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{226BCD0F-2437-4C8A-9873-F9CE86B33DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrated DCF" sheetId="1" r:id="rId1"/>
@@ -41,388 +41,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Matan Feldman</author>
-    <author>Wall Street Prep</author>
-  </authors>
-  <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{81AD8F68-5B75-4CCA-843E-AF6772E6B645}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Matan Feldman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In practice can use the NOW() function to keep current date active</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{E9537265-283A-41DA-B8B1-67BD5E0A42E9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Matan Feldman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Midyear convention? (1=Yes,0=No)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{1957F372-BBDB-46AE-83CB-0BF874991056}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Matan Feldman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-NOPAT stands for net operating profit after taxes.  It represents a company's operating profits less tax expense on operations.  This means that the tax deductions due to interest expense are ignored in this buildup and are instead captured in the discount rate.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{63507141-70AA-45C6-A2B2-EEDC3A158BC7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Matan Feldman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Stub year adjusted</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I51" authorId="1" shapeId="0" xr:uid="{048DB111-330E-459E-99C2-39D7AC69B17F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Implied g = [r -FCF(t)/TV]/(1+FCF(t)/TV)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{4CCAD7FB-DC67-42C8-9B1E-9CDB9A6B4459}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Matan Feldman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: Q1 2020 10Q p.19 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{07548614-9BEE-4C3A-8402-0FAFA317D3D7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Matan Feldman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Include cash &amp; equivalents, short term and long term marketable securites and investments</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Matan Feldman</author>
-    <author>Wall Street Prep</author>
-  </authors>
-  <commentList>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{181E21C9-FA9D-4E3B-AC20-A3B7DBD2CE90}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Matan Feldman:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Equity was $1,223,044.7 in the video because we ignored the illusrative converts and options (in case you're wondering why your numbers aren't footing with the video)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C40" authorId="1" shapeId="0" xr:uid="{5F55FF8B-C31E-4C12-8D6C-216D4FCD6AE5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-CIQ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H40" authorId="1" shapeId="0" xr:uid="{2BF6342E-62C2-4054-AD5B-B739CD694D0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Last 9 month per latest 10Q footnotes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C41" authorId="1" shapeId="0" xr:uid="{2767F4D5-B7A5-44BF-B6EB-EE7AEEAD9920}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-CIQ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H41" authorId="1" shapeId="0" xr:uid="{703CD6DC-CDB5-4818-B8FC-8C9C7F64D62A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Non-GAAP tax rate from latest 10Q</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C42" authorId="1" shapeId="0" xr:uid="{72B50E4E-D692-45B3-9C41-E651E9059AA8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-CIQ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H42" authorId="1" shapeId="0" xr:uid="{1FE1D949-0C5B-45CC-B5BA-BD21762B9F81}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Annualized tax rate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{7E94D6BF-9283-4036-99BE-F75D48323767}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Wall Street Prep:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bloomberg</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Matan Feldman</author>
@@ -3437,85 +3055,16 @@
           <cell r="B128" t="str">
             <v>DCF Value at 11.0x-15.0x Exit EBITDA Range at 9.0% WACC</v>
           </cell>
-          <cell r="C128">
-            <v>234.18244617024146</v>
-          </cell>
-          <cell r="D128">
-            <v>59.053939159871163</v>
-          </cell>
-          <cell r="E128">
-            <v>293.23638533011263</v>
-          </cell>
-          <cell r="G128" t="str">
-            <v>LTM EBITDA Purchase Multiple at 2.0%-4.0% Perpetuity Growth at 9.0% WACC</v>
-          </cell>
-          <cell r="O128">
-            <v>12.83250180268738</v>
-          </cell>
-          <cell r="P128">
-            <v>4.1440005495051278</v>
-          </cell>
-          <cell r="Q128">
-            <v>16.976502352192508</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129" t="str">
-            <v>DCF Value at 2.0%-4.0% Perpetuity Range at 9.0% WACC</v>
-          </cell>
-          <cell r="C129">
-            <v>229.67451002601129</v>
-          </cell>
-          <cell r="D129">
-            <v>67.49040479784432</v>
-          </cell>
-          <cell r="E129">
-            <v>297.16491482385561</v>
-          </cell>
-          <cell r="G129" t="str">
-            <v>LTM EBITDA Purchase Multiple at 13.1x-16.7x Exit EBITDA Multiple at 9.0% WACC</v>
-          </cell>
-          <cell r="O129">
-            <v>13.109295073001569</v>
-          </cell>
-          <cell r="P129">
-            <v>3.6259903472495552</v>
-          </cell>
-          <cell r="Q129">
-            <v>16.735285420251124</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130" t="str">
-            <v>52 Week Market High/Low</v>
-          </cell>
-          <cell r="C130">
-            <v>169.5</v>
-          </cell>
-          <cell r="D130">
-            <v>158.35000000000002</v>
-          </cell>
-          <cell r="E130">
-            <v>327.85</v>
-          </cell>
-          <cell r="G130" t="str">
-            <v>LTM EBITDA Purchase Multiple at 7.0%-11.0% WACC at 13.0x Exit EBITDA</v>
-          </cell>
-          <cell r="O130">
-            <v>13.826590996388775</v>
-          </cell>
-          <cell r="P130">
-            <v>2.3061658520416284</v>
-          </cell>
-          <cell r="Q130">
-            <v>16.132756848430404</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3834,26 +3383,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A590DBED-74BF-4BDC-961D-03486890574C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A590DBED-74BF-4BDC-961D-03486890574C}">
   <dimension ref="B1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="52.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="1.46484375" customWidth="1"/>
+    <col min="2" max="2" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3865,13 +3414,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="str">
         <f>'[1]Financials '!$B$3</f>
         <v xml:space="preserve">$ and shares in millions, except per share data </v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3889,7 +3438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3907,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3922,7 +3471,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -3938,7 +3487,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -3947,7 +3496,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D9" s="12"/>
       <c r="F9" t="s">
         <v>12</v>
@@ -3957,7 +3506,7 @@
         <v>Base case</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
@@ -3968,7 +3517,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="15.4" x14ac:dyDescent="0.6">
       <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
@@ -3983,7 +3532,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
@@ -4016,7 +3565,7 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="18"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
@@ -4025,7 +3574,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -4058,7 +3607,7 @@
         <v>1281537.4970711132</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
         <v>19</v>
       </c>
@@ -4084,7 +3633,7 @@
         <v>0.12690000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -4117,7 +3666,7 @@
         <v>333948.42331896815</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
@@ -4146,7 +3695,7 @@
         <v>0.26058419990221882</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -4179,7 +3728,7 @@
         <v>187623.01206945363</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
@@ -4208,7 +3757,7 @@
         <v>0.14640462140066615</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="27"/>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
@@ -4217,7 +3766,7 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -4246,7 +3795,7 @@
         <v>34897.880244918379</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="27" t="s">
         <v>24</v>
       </c>
@@ -4275,7 +3824,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" s="35" t="s">
         <v>25</v>
       </c>
@@ -4305,7 +3854,7 @@
         <v>152725.13182453526</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -4313,7 +3862,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +3892,7 @@
       </c>
       <c r="M25" s="39"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -4370,7 +3919,7 @@
       </c>
       <c r="M26" s="39"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -4397,7 +3946,7 @@
       </c>
       <c r="M27" s="39"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B28" s="27" t="s">
         <v>29</v>
       </c>
@@ -4424,7 +3973,7 @@
       </c>
       <c r="M28" s="39"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -4433,7 +3982,7 @@
       <c r="I29" s="32"/>
       <c r="M29" s="39"/>
     </row>
-    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" s="35" t="s">
         <v>30</v>
       </c>
@@ -4461,11 +4010,11 @@
       </c>
       <c r="M30" s="40"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D31" s="32"/>
       <c r="M31" s="39"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4043,7 @@
         <v>-195680.23146744948</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="27" t="s">
         <v>29</v>
       </c>
@@ -4521,7 +4070,7 @@
       </c>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D34" s="32"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -4532,7 +4081,7 @@
       <c r="K34" s="42"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="13" t="str">
         <f>"Present value of UFCF on "&amp;TEXT(D7,"mmm dd, yyyy")&amp;" valuation date"</f>
         <v>Present value of UFCF on Feb 13, 2026 valuation date</v>
@@ -4546,7 +4095,7 @@
       <c r="I35" s="43"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="2:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" ht="15.4" x14ac:dyDescent="0.6">
       <c r="B36" s="35"/>
       <c r="D36" s="44" t="s">
         <v>32</v>
@@ -4568,7 +4117,7 @@
       </c>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -4598,7 +4147,7 @@
       </c>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>39</v>
       </c>
@@ -4629,7 +4178,7 @@
       </c>
       <c r="J38" s="37"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39" s="35" t="s">
         <v>40</v>
       </c>
@@ -4657,7 +4206,7 @@
       </c>
       <c r="J39" s="37"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
@@ -4670,7 +4219,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>43</v>
       </c>
@@ -4686,7 +4235,7 @@
       </c>
       <c r="J42" s="39"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43" s="51" t="str">
         <f>YEAR(I12)&amp;" FCF x (1+g)"</f>
         <v>2030 FCF x (1+g)</v>
@@ -4703,7 +4252,7 @@
       </c>
       <c r="J43" s="52"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B44" t="str">
         <f>"Terminal value in "&amp;YEAR(I12)</f>
         <v>Terminal value in 2030</v>
@@ -4722,7 +4271,7 @@
       </c>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>46</v>
       </c>
@@ -4739,7 +4288,7 @@
       </c>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>47</v>
       </c>
@@ -4756,7 +4305,7 @@
       </c>
       <c r="J46" s="39"/>
     </row>
-    <row r="47" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B47" s="35" t="s">
         <v>48</v>
       </c>
@@ -4773,7 +4322,7 @@
       </c>
       <c r="J47" s="53"/>
     </row>
-    <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" s="54" t="s">
         <v>50</v>
       </c>
@@ -4790,7 +4339,7 @@
       </c>
       <c r="J49" s="55"/>
     </row>
-    <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B50" s="54" t="s">
         <v>51</v>
       </c>
@@ -4808,7 +4357,7 @@
       </c>
       <c r="J50" s="57"/>
     </row>
-    <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B51" s="54" t="s">
         <v>53</v>
       </c>
@@ -4825,14 +4374,14 @@
       </c>
       <c r="J51" s="59"/>
     </row>
-    <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" s="54"/>
       <c r="C52" s="18"/>
       <c r="D52" s="58"/>
       <c r="I52" s="59"/>
       <c r="J52" s="59"/>
     </row>
-    <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" s="13" t="s">
         <v>55</v>
       </c>
@@ -4845,7 +4394,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -4853,7 +4402,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B55" s="60" t="s">
         <v>58</v>
       </c>
@@ -4871,7 +4420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B56" s="63" t="s">
         <v>61</v>
       </c>
@@ -4890,7 +4439,7 @@
       </c>
       <c r="J56" s="65"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B57" s="27" t="s">
         <v>63</v>
       </c>
@@ -4912,7 +4461,7 @@
       </c>
       <c r="J57" s="67"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B58" s="27" t="s">
         <v>65</v>
       </c>
@@ -4929,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B59" s="27" t="s">
         <v>67</v>
       </c>
@@ -4946,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B60" s="70" t="s">
         <v>68</v>
       </c>
@@ -4962,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B61" s="63" t="s">
         <v>70</v>
       </c>
@@ -4975,7 +4524,7 @@
       </c>
       <c r="J61" s="73"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B62" s="74" t="s">
         <v>72</v>
       </c>
@@ -4985,7 +4534,7 @@
       </c>
       <c r="J62" s="75"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B63" s="74" t="s">
         <v>73</v>
       </c>
@@ -4994,10 +4543,10 @@
       </c>
       <c r="J63" s="75"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J64" s="76"/>
     </row>
-    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B65" s="77" t="s">
         <v>55</v>
       </c>
@@ -5006,14 +4555,14 @@
         <v>-57381</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" ht="15.4" x14ac:dyDescent="0.6">
       <c r="C68" s="79" t="s">
         <v>75</v>
       </c>
@@ -5021,7 +4570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>76</v>
       </c>
@@ -5034,7 +4583,7 @@
         <v>2353172.0790191935</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>55</v>
       </c>
@@ -5047,7 +4596,7 @@
         <v>-57381</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>77</v>
       </c>
@@ -5060,7 +4609,7 @@
         <v>2410553.0790191935</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>56</v>
       </c>
@@ -5073,7 +4622,7 @@
         <v>10957.42087</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B73" s="35" t="s">
         <v>78</v>
       </c>
@@ -5086,13 +4635,13 @@
         <v>219.99274351311774</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" ht="15.4" x14ac:dyDescent="0.6">
       <c r="C75" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D75" s="16"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B76" s="61"/>
       <c r="C76" s="62" t="s">
         <v>75</v>
@@ -5101,7 +4650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>80</v>
       </c>
@@ -5114,7 +4663,7 @@
         <v>3.2359196487244093</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>81</v>
       </c>
@@ -5127,7 +4676,7 @@
         <v>15.631718978541672</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B79" s="37" t="s">
         <v>82</v>
       </c>
@@ -5140,7 +4689,7 @@
         <v>28.590863402940681</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" ht="15.4" x14ac:dyDescent="0.6">
       <c r="B80" s="37"/>
       <c r="C80" s="16" t="s">
         <v>83</v>
@@ -5149,7 +4698,7 @@
       <c r="E80" s="85"/>
       <c r="F80" s="85"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81" s="61"/>
       <c r="C81" s="62" t="s">
         <v>75</v>
@@ -5160,7 +4709,7 @@
       <c r="E81" s="85"/>
       <c r="F81" s="85"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>80</v>
       </c>
@@ -5175,7 +4724,7 @@
       <c r="E82" s="85"/>
       <c r="F82" s="85"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>81</v>
       </c>
@@ -5190,7 +4739,7 @@
       <c r="E83" s="85"/>
       <c r="F83" s="85"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84" s="37" t="s">
         <v>82</v>
       </c>
@@ -5205,10 +4754,10 @@
       <c r="E84" s="85"/>
       <c r="F84" s="85"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="G85" s="152"/>
     </row>
-    <row r="86" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86" s="13" t="s">
         <v>84</v>
       </c>
@@ -5228,10 +4777,10 @@
       <c r="P86" s="13"/>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87" s="35"/>
     </row>
-    <row r="88" spans="2:17" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:17" ht="15.4" x14ac:dyDescent="0.6">
       <c r="B88" s="87"/>
       <c r="C88" s="35"/>
       <c r="D88" s="88" t="s">
@@ -5252,7 +4801,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89" s="87"/>
       <c r="D89" s="60"/>
       <c r="E89" s="90" t="s">
@@ -5272,7 +4821,7 @@
       <c r="P89" s="90"/>
       <c r="Q89" s="90"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90" s="87"/>
       <c r="C90" s="92"/>
       <c r="D90" s="93">
@@ -5323,7 +4872,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91" s="87"/>
       <c r="D91" s="100">
         <f>D92+0.01</f>
@@ -5367,7 +4916,7 @@
         <v>4.4895481566530311</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92" s="87"/>
       <c r="D92" s="100">
         <f>D93+0.01</f>
@@ -5409,7 +4958,7 @@
         <v>5.1963756686150964</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93" s="87"/>
       <c r="C93" s="92" t="s">
         <v>87</v>
@@ -5455,7 +5004,7 @@
         <v>6.133287872207446</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94" s="87"/>
       <c r="D94" s="100">
         <f t="shared" ref="D94:D95" si="14">D93-0.01</f>
@@ -5497,7 +5046,7 @@
         <v>7.4324061683149099</v>
       </c>
     </row>
-    <row r="95" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95" s="105" t="s">
         <v>88</v>
       </c>
@@ -5541,7 +5090,7 @@
         <v>9.3507670111718202</v>
       </c>
     </row>
-    <row r="96" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96" s="105" t="s">
         <v>89</v>
       </c>
@@ -5552,7 +5101,7 @@
       <c r="I96" s="107"/>
       <c r="J96" s="108"/>
     </row>
-    <row r="97" spans="2:17" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:17" ht="15.4" x14ac:dyDescent="0.6">
       <c r="B97" s="87"/>
       <c r="D97" s="88" t="s">
         <v>78</v>
@@ -5572,7 +5121,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="16"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B98" s="87"/>
       <c r="E98" s="90" t="s">
         <v>90</v>
@@ -5590,7 +5139,7 @@
       <c r="P98" s="90"/>
       <c r="Q98" s="90"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B99" s="87"/>
       <c r="D99" s="109">
         <f ca="1">D73</f>
@@ -5640,7 +5189,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B100" s="87"/>
       <c r="D100" s="100">
         <f t="shared" ref="D100" si="16">D101+0.01</f>
@@ -5684,7 +5233,7 @@
         <v>16.934897241538859</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B101" s="87"/>
       <c r="D101" s="100">
         <f>D102+0.01</f>
@@ -5726,7 +5275,7 @@
         <v>17.685268440453687</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B102" s="87"/>
       <c r="C102" s="92" t="s">
         <v>87</v>
@@ -5772,7 +5321,7 @@
         <v>18.476388353410179</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B103" s="87"/>
       <c r="D103" s="100">
         <f t="shared" ref="D103:D104" si="18">D102-0.01</f>
@@ -5814,7 +5363,7 @@
         <v>19.310877528294114</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B104" s="87"/>
       <c r="D104" s="106">
         <f t="shared" si="18"/>
@@ -5856,10 +5405,10 @@
         <v>20.191551607775899</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J105" s="114"/>
     </row>
-    <row r="106" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B106" s="115" t="s">
         <v>91</v>
       </c>
@@ -5879,68 +5428,68 @@
       <c r="O106" s="115"/>
       <c r="P106" s="115"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J107" s="114"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J108" s="114"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J109" s="114"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J110" s="114"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J111" s="114"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J112" s="114"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J113" s="114"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J114" s="114"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J115" s="114"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J116" s="114"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J117" s="114"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J118" s="114"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J119" s="114"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J120" s="114"/>
       <c r="M120" s="117"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J121" s="114"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J122" s="114"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J123" s="114"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J124" s="114"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J125" s="114"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J126" s="114"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B127" s="118"/>
       <c r="C127" s="119" t="s">
         <v>93</v>
@@ -5969,7 +5518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B128" s="123" t="str">
         <f>"DCF Value at "&amp;TEXT(E99,"0.0x")&amp;"-"&amp;TEXT(I99,"0.0x")&amp;" Exit EBITDA Range at "&amp;TEXT(D102,"0.0%")&amp;" WACC"</f>
         <v>DCF Value at 8.3x-12.3x Exit EBITDA Range at 9.5% WACC</v>
@@ -6004,7 +5553,7 @@
         <v>6.133287872207446</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B129" s="128" t="str">
         <f>"DCF Value at "&amp;TEXT(E90,"0.0%")&amp;"-"&amp;TEXT(I90,"0.0%")&amp;" Perpetuity Range at "&amp;TEXT(D102,"0.0%")&amp;" WACC"</f>
         <v>DCF Value at 1.3%-3.3% Perpetuity Range at 9.5% WACC</v>
@@ -6039,7 +5588,7 @@
         <v>18.476388353410179</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B130" s="129" t="s">
         <v>96</v>
       </c>
@@ -6077,10 +5626,10 @@
         <v>17.079077722238026</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J131" s="114"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J132" s="114"/>
     </row>
   </sheetData>
@@ -6089,34 +5638,36 @@
       <formula>$C$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7" xr:uid="{3B776447-0AC3-4121-8D55-F3C9F46A63D1}">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D32" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862F1995-1539-48F2-A52D-9898FFC6050A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862F1995-1539-48F2-A52D-9898FFC6050A}">
   <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="1.46484375" customWidth="1"/>
+    <col min="2" max="2" width="31.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" customWidth="1"/>
+    <col min="6" max="6" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
@@ -6128,13 +5679,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="str">
         <f>'[1]Financials '!$B$3</f>
         <v xml:space="preserve">$ and shares in millions, except per share data </v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="136" t="s">
         <v>98</v>
       </c>
@@ -6143,12 +5694,12 @@
       <c r="E4" s="138"/>
       <c r="F4" s="139"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="E5" s="61" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>100</v>
       </c>
@@ -6159,7 +5710,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -6171,7 +5722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>102</v>
       </c>
@@ -6183,7 +5734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -6194,7 +5745,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>105</v>
       </c>
@@ -6206,7 +5757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>107</v>
       </c>
@@ -6217,7 +5768,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>108</v>
       </c>
@@ -6229,7 +5780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="141" t="s">
         <v>110</v>
       </c>
@@ -6238,7 +5789,7 @@
       <c r="E15" s="133"/>
       <c r="F15" s="35"/>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="35"/>
       <c r="C16" s="92"/>
       <c r="D16" s="92" t="s">
@@ -6246,7 +5797,7 @@
       </c>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="15.4" x14ac:dyDescent="0.6">
       <c r="C17" s="142" t="s">
         <v>112</v>
       </c>
@@ -6257,7 +5808,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>115</v>
       </c>
@@ -6271,7 +5822,7 @@
         <v>1.0270557293243185</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -6285,7 +5836,7 @@
         <v>-2.7055729324318545E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="143" t="s">
         <v>116</v>
       </c>
@@ -6296,11 +5847,11 @@
         <v>9.5311639642438967E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="35"/>
       <c r="C22" s="155"/>
     </row>
-    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="141" t="s">
         <v>117</v>
       </c>
@@ -6309,14 +5860,14 @@
       <c r="E23" s="133"/>
       <c r="F23" s="133"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D24" s="90" t="s">
         <v>118</v>
       </c>
       <c r="E24" s="156"/>
       <c r="F24" s="90"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C25" s="157">
         <f>E21</f>
         <v>9.5311639642438967E-2</v>
@@ -6333,7 +5884,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C26" s="161">
         <f>C27-0.005</f>
         <v>3.1700000000000006E-2</v>
@@ -6348,7 +5899,7 @@
         <v>7.080415625543017E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="92" t="s">
         <v>119</v>
       </c>
@@ -6366,7 +5917,7 @@
         <v>7.7325824372097077E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="92" t="s">
         <v>120</v>
       </c>
@@ -6383,7 +5934,7 @@
         <v>8.3847492488763983E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="92" t="s">
         <v>121</v>
       </c>
@@ -6401,7 +5952,7 @@
         <v>9.0369160605430876E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C30" s="161">
         <f>C29+0.005</f>
         <v>5.1699999999999996E-2</v>
@@ -6416,13 +5967,13 @@
         <v>9.6890828722097783E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C31" s="164"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>122</v>
       </c>
@@ -6430,7 +5981,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="27" t="s">
         <v>123</v>
       </c>
@@ -6441,7 +5992,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" s="27" t="s">
         <v>124</v>
       </c>
@@ -6453,7 +6004,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" s="141" t="s">
         <v>124</v>
       </c>
@@ -6465,10 +6016,10 @@
       <c r="H37" s="133"/>
       <c r="I37" s="133"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H38" s="166"/>
     </row>
-    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C39" s="167" t="s">
         <v>126</v>
       </c>
@@ -6491,7 +6042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" s="169" t="s">
         <v>132</v>
       </c>
@@ -6520,7 +6071,7 @@
         <v>1.0948895691986753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" s="169" t="s">
         <v>261</v>
       </c>
@@ -6549,7 +6100,7 @@
         <v>1.1082352422549016</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" s="169" t="s">
         <v>260</v>
       </c>
@@ -6578,7 +6129,7 @@
         <v>0.65010770344013247</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" s="169" t="s">
         <v>133</v>
       </c>
@@ -6605,7 +6156,7 @@
         <v>1.4102400628111182</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" s="169"/>
       <c r="C44" s="75"/>
       <c r="F44" s="171"/>
@@ -6613,7 +6164,7 @@
       <c r="H44" s="171"/>
       <c r="I44" s="152"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>134</v>
       </c>
@@ -6622,7 +6173,7 @@
         <v>1.065868144426207</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B46" s="35" t="str">
         <f>B43&amp;" beta"</f>
         <v>Amazon (AMZN) beta</v>
@@ -6632,7 +6183,7 @@
         <v>1.0430125182914844</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C47" s="124"/>
     </row>
   </sheetData>
@@ -6647,7 +6198,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6655,21 +6205,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D7A6A-1A5E-4A59-8698-23B6EA127917}">
   <dimension ref="B1:P204"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="1.46484375" customWidth="1"/>
+    <col min="2" max="2" width="60.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="9.265625" customWidth="1"/>
+    <col min="10" max="10" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="str">
         <f>"Financial Statement Model for "&amp;C5</f>
         <v>Financial Statement Model for Amazon</v>
@@ -6683,7 +6233,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="176" t="s">
         <v>135</v>
       </c>
@@ -6693,7 +6243,7 @@
       <c r="F3" s="177"/>
       <c r="G3" s="177"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="145" t="s">
         <v>136</v>
       </c>
@@ -6701,7 +6251,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="145" t="s">
         <v>138</v>
       </c>
@@ -6709,7 +6259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -6717,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>141</v>
       </c>
@@ -6725,7 +6275,7 @@
         <v>198.79</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -6733,7 +6283,7 @@
         <v>46066</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="145" t="s">
         <v>143</v>
       </c>
@@ -6741,7 +6291,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>144</v>
       </c>
@@ -6749,7 +6299,7 @@
         <v>10734.92087</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>145</v>
       </c>
@@ -6757,11 +6307,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
     </row>
-    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="141" t="s">
         <v>147</v>
       </c>
@@ -6774,7 +6324,7 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
     </row>
-    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>148</v>
       </c>
@@ -6811,7 +6361,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="186" t="s">
         <v>149</v>
       </c>
@@ -6849,7 +6399,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="18"/>
       <c r="C17" s="188"/>
       <c r="D17" s="66"/>
@@ -6860,7 +6410,7 @@
       <c r="I17" s="189"/>
       <c r="J17" s="189"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -6894,7 +6444,7 @@
         <v>1281537.4970711132</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>150</v>
       </c>
@@ -6931,7 +6481,7 @@
         <v>-807368.62315480132</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="35" t="s">
         <v>151</v>
       </c>
@@ -6969,7 +6519,7 @@
       </c>
       <c r="L20" s="193"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>152</v>
       </c>
@@ -7004,7 +6554,7 @@
       </c>
       <c r="L21" s="193"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>153</v>
       </c>
@@ -7042,7 +6592,7 @@
       </c>
       <c r="L22" s="193"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>154</v>
       </c>
@@ -7077,7 +6627,7 @@
       </c>
       <c r="L23" s="193"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="35" t="s">
         <v>155</v>
       </c>
@@ -7115,7 +6665,7 @@
       </c>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>156</v>
       </c>
@@ -7149,7 +6699,7 @@
         <v>5793.1524562460845</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>157</v>
       </c>
@@ -7183,7 +6733,7 @@
         <v>-2524.4320585773353</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>158</v>
       </c>
@@ -7217,7 +6767,7 @@
         <v>15229</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B28" s="35" t="s">
         <v>159</v>
       </c>
@@ -7256,7 +6806,7 @@
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>160</v>
       </c>
@@ -7290,7 +6840,7 @@
         <v>-38338.456238884763</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>161</v>
       </c>
@@ -7309,7 +6859,7 @@
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B31" s="35" t="s">
         <v>162</v>
       </c>
@@ -7347,7 +6897,7 @@
       </c>
       <c r="L31" s="35"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B32" s="27"/>
       <c r="C32" s="171"/>
       <c r="D32" s="171"/>
@@ -7358,7 +6908,7 @@
       <c r="I32" s="171"/>
       <c r="J32" s="171"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B33" s="60" t="s">
         <v>26</v>
       </c>
@@ -7392,7 +6942,7 @@
         <v>146325.41124951455</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B34" s="71" t="s">
         <v>20</v>
       </c>
@@ -7430,7 +6980,7 @@
       </c>
       <c r="L34" s="35"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B35" s="60" t="s">
         <v>163</v>
       </c>
@@ -7464,7 +7014,7 @@
         <v>34798.235873653779</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B36" s="71" t="s">
         <v>164</v>
       </c>
@@ -7502,16 +7052,16 @@
       </c>
       <c r="L36" s="35"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B37" s="27"/>
       <c r="F37" s="194"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B38" s="61" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B39" s="27" t="s">
         <v>166</v>
       </c>
@@ -7548,7 +7098,7 @@
       <c r="O39" s="172"/>
       <c r="P39" s="172"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B40" s="27" t="s">
         <v>167</v>
       </c>
@@ -7588,7 +7138,7 @@
       <c r="O40" s="172"/>
       <c r="P40" s="172"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B41" s="27" t="s">
         <v>168</v>
       </c>
@@ -7628,7 +7178,7 @@
       <c r="O41" s="172"/>
       <c r="P41" s="172"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B42" s="27" t="s">
         <v>169</v>
       </c>
@@ -7668,7 +7218,7 @@
       <c r="O42" s="172"/>
       <c r="P42" s="172"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B43" s="27" t="s">
         <v>24</v>
       </c>
@@ -7705,11 +7255,11 @@
       <c r="O43" s="172"/>
       <c r="P43" s="172"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B44" s="27"/>
       <c r="F44" s="194"/>
     </row>
-    <row r="45" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B45" s="141" t="s">
         <v>170</v>
       </c>
@@ -7722,7 +7272,7 @@
       <c r="I45" s="133"/>
       <c r="J45" s="133"/>
     </row>
-    <row r="46" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B46" s="197" t="str">
         <f>B15</f>
         <v xml:space="preserve">Fiscal year  </v>
@@ -7757,7 +7307,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B47" s="133" t="str">
         <f>B16</f>
         <v>Fiscal year end date</v>
@@ -7792,7 +7342,7 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>171</v>
       </c>
@@ -7826,7 +7376,7 @@
         <v>213469.46317277758</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>172</v>
       </c>
@@ -7858,7 +7408,7 @@
         <v>121068.97403229552</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>173</v>
       </c>
@@ -7890,7 +7440,7 @@
         <v>66473.040083541913</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>174</v>
       </c>
@@ -7922,7 +7472,7 @@
         <v>988165.93152198521</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>175</v>
       </c>
@@ -7956,7 +7506,7 @@
         <v>414593.62198181619</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" s="71" t="s">
         <v>176</v>
       </c>
@@ -7990,7 +7540,7 @@
         <v>1803771.0307924163</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B54" s="60"/>
       <c r="C54" s="171"/>
       <c r="D54" s="171"/>
@@ -8001,7 +7551,7 @@
       <c r="I54" s="171"/>
       <c r="J54" s="171"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B55" s="60" t="s">
         <v>177</v>
       </c>
@@ -8033,7 +7583,7 @@
         <v>211445.84066652349</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B56" s="60" t="s">
         <v>178</v>
       </c>
@@ -8065,7 +7615,7 @@
         <v>134995.77609176212</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B57" s="60" t="s">
         <v>179</v>
       </c>
@@ -8097,7 +7647,7 @@
         <v>36780.628825001288</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B58" s="60" t="s">
         <v>180</v>
       </c>
@@ -8129,7 +7679,7 @@
         <v>87339</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B59" s="60" t="s">
         <v>181</v>
       </c>
@@ -8161,7 +7711,7 @@
         <v>65648</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B60" s="60" t="s">
         <v>182</v>
       </c>
@@ -8193,7 +7743,7 @@
         <v>64324.986793724303</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B61" s="71" t="s">
         <v>183</v>
       </c>
@@ -8227,7 +7777,7 @@
         <v>600534.23237701133</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B62" s="71"/>
       <c r="C62" s="192"/>
       <c r="D62" s="192"/>
@@ -8238,7 +7788,7 @@
       <c r="I62" s="171"/>
       <c r="J62" s="171"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B63" s="60" t="s">
         <v>184</v>
       </c>
@@ -8270,7 +7820,7 @@
         <v>139368.11011324223</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B64" s="60" t="s">
         <v>185</v>
       </c>
@@ -8302,7 +7852,7 @@
         <v>-7837</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B65" s="60" t="s">
         <v>186</v>
       </c>
@@ -8334,7 +7884,7 @@
         <v>140024</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B66" s="60" t="s">
         <v>187</v>
       </c>
@@ -8366,7 +7916,7 @@
         <v>903451.6883021628</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B67" s="60" t="s">
         <v>188</v>
       </c>
@@ -8398,7 +7948,7 @@
         <v>28230</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B68" s="71" t="s">
         <v>189</v>
       </c>
@@ -8432,12 +7982,12 @@
         <v>1203236.798415405</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C69" s="171"/>
       <c r="D69" s="171"/>
       <c r="E69" s="171"/>
     </row>
-    <row r="70" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B70" s="18" t="s">
         <v>190</v>
       </c>
@@ -8471,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D71" s="171"/>
       <c r="E71" s="171"/>
       <c r="G71" s="171"/>
@@ -8479,7 +8029,7 @@
       <c r="I71" s="171"/>
       <c r="J71" s="171"/>
     </row>
-    <row r="72" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B72" s="141" t="s">
         <v>191</v>
       </c>
@@ -8492,7 +8042,7 @@
       <c r="I72" s="196"/>
       <c r="J72" s="196"/>
     </row>
-    <row r="73" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B73" s="197" t="str">
         <f>B15</f>
         <v xml:space="preserve">Fiscal year  </v>
@@ -8521,7 +8071,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B74" s="133" t="str">
         <f>B16</f>
         <v>Fiscal year end date</v>
@@ -8550,7 +8100,7 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>162</v>
       </c>
@@ -8579,7 +8129,7 @@
       </c>
       <c r="L76" s="35"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>192</v>
       </c>
@@ -8607,7 +8157,7 @@
         <v>146325.41124951455</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>163</v>
       </c>
@@ -8635,7 +8185,7 @@
         <v>34798.235873653779</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>193</v>
       </c>
@@ -8663,7 +8213,7 @@
         <v>-21119.071427189425</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>194</v>
       </c>
@@ -8691,7 +8241,7 @@
         <v>43154.586000993091</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>175</v>
       </c>
@@ -8716,7 +8266,7 @@
         <v>-89331.103707940027</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>182</v>
       </c>
@@ -8742,7 +8292,7 @@
       </c>
       <c r="L82" s="35"/>
     </row>
-    <row r="83" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B83" s="35" t="s">
         <v>195</v>
       </c>
@@ -8767,14 +8317,14 @@
         <v>288853.95905010618</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
       <c r="F84" s="171"/>
       <c r="G84" s="171"/>
       <c r="H84" s="171"/>
       <c r="I84" s="171"/>
       <c r="J84" s="171"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>28</v>
       </c>
@@ -8799,7 +8349,7 @@
         <v>-248125.19645429001</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B86" s="35" t="s">
         <v>196</v>
       </c>
@@ -8824,14 +8374,14 @@
         <v>-248125.19645429001</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
       <c r="F87" s="171"/>
       <c r="G87" s="171"/>
       <c r="H87" s="171"/>
       <c r="I87" s="171"/>
       <c r="J87" s="171"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>180</v>
       </c>
@@ -8856,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>197</v>
       </c>
@@ -8881,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>198</v>
       </c>
@@ -8906,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>199</v>
       </c>
@@ -8931,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B92" s="35" t="s">
         <v>200</v>
       </c>
@@ -8956,14 +8506,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
       <c r="F93" s="171"/>
       <c r="G93" s="171"/>
       <c r="H93" s="171"/>
       <c r="I93" s="171"/>
       <c r="J93" s="171"/>
     </row>
-    <row r="94" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B94" s="35" t="s">
         <v>201</v>
       </c>
@@ -8988,7 +8538,7 @@
         <v>40728.762595816166</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B96" s="141" t="s">
         <v>202</v>
       </c>
@@ -9001,7 +8551,7 @@
       <c r="I96" s="133"/>
       <c r="J96" s="133"/>
     </row>
-    <row r="97" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B97" s="197" t="str">
         <f t="shared" ref="B97:J98" si="19">B15</f>
         <v xml:space="preserve">Fiscal year  </v>
@@ -9039,7 +8589,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="98" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B98" s="133" t="str">
         <f t="shared" si="19"/>
         <v>Fiscal year end date</v>
@@ -9077,7 +8627,7 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="99" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B99" s="35"/>
       <c r="F99" s="203" t="s">
         <v>203</v>
@@ -9087,7 +8637,7 @@
       <c r="I99" s="203"/>
       <c r="J99" s="203"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B100" s="60" t="s">
         <v>204</v>
       </c>
@@ -9112,7 +8662,7 @@
         <v>843722.35348822293</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B101" s="204" t="s">
         <v>205</v>
       </c>
@@ -9143,7 +8693,7 @@
         <v>248125.19645429001</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B102" s="205" t="s">
         <v>206</v>
       </c>
@@ -9177,7 +8727,7 @@
         <v>-103681.61842052784</v>
       </c>
     </row>
-    <row r="103" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B103" s="208" t="s">
         <v>207</v>
       </c>
@@ -9211,13 +8761,13 @@
         <v>988165.93152198521</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B104" s="60"/>
       <c r="L104" s="61" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B105" s="60" t="s">
         <v>209</v>
       </c>
@@ -9260,7 +8810,7 @@
       <c r="O105" s="210"/>
       <c r="P105" s="210"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B106" s="60"/>
       <c r="C106" s="152"/>
       <c r="D106" s="152"/>
@@ -9274,7 +8824,7 @@
       <c r="O106" s="210"/>
       <c r="P106" s="210"/>
     </row>
-    <row r="107" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B107" s="211" t="s">
         <v>210</v>
       </c>
@@ -9290,7 +8840,7 @@
       <c r="O107" s="210"/>
       <c r="P107" s="210"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B108" s="60" t="s">
         <v>211</v>
       </c>
@@ -9330,7 +8880,7 @@
       <c r="O108" s="210"/>
       <c r="P108" s="210"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B109" s="27" t="s">
         <v>29</v>
       </c>
@@ -9367,7 +8917,7 @@
         <v>3.3275493636703471E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B110" s="71" t="s">
         <v>212</v>
       </c>
@@ -9404,7 +8954,7 @@
         <v>146325.41124951455</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B111" s="60"/>
       <c r="C111" s="171"/>
       <c r="D111" s="171"/>
@@ -9414,7 +8964,7 @@
       <c r="I111" s="171"/>
       <c r="J111" s="171"/>
     </row>
-    <row r="112" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B112" s="214" t="s">
         <v>213</v>
       </c>
@@ -9426,7 +8976,7 @@
       <c r="I112" s="171"/>
       <c r="J112" s="171"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B113" s="60" t="s">
         <v>204</v>
       </c>
@@ -9452,7 +9002,7 @@
         <v>367906.31110286288</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B114" s="27" t="s">
         <v>214</v>
       </c>
@@ -9477,7 +9027,7 @@
         <v>-42643.79282898672</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B115" s="216" t="s">
         <v>215</v>
       </c>
@@ -9505,7 +9055,7 @@
         <v>89331.103707940027</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B116" s="208" t="s">
         <v>207</v>
       </c>
@@ -9538,7 +9088,7 @@
         <v>414593.62198181619</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B117" s="27"/>
       <c r="D117" s="171"/>
       <c r="E117" s="171"/>
@@ -9547,7 +9097,7 @@
       <c r="I117" s="171"/>
       <c r="J117" s="171"/>
     </row>
-    <row r="118" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B118" s="218" t="s">
         <v>216</v>
       </c>
@@ -9560,7 +9110,7 @@
       <c r="I118" s="133"/>
       <c r="J118" s="133"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B119" s="60" t="s">
         <v>204</v>
       </c>
@@ -9585,7 +9135,7 @@
         <v>735669.41207392525</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B120" s="27" t="s">
         <v>217</v>
       </c>
@@ -9622,7 +9172,7 @@
         <v>167782.27622823761</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B121" s="27" t="s">
         <v>218</v>
       </c>
@@ -9656,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B122" s="216" t="s">
         <v>219</v>
       </c>
@@ -9690,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B123" s="208" t="s">
         <v>207</v>
       </c>
@@ -9727,11 +9277,11 @@
         <v>903451.6883021628</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D124" s="202"/>
       <c r="E124" s="202"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C125" s="171"/>
       <c r="D125" s="171"/>
       <c r="E125" s="219"/>
@@ -9741,7 +9291,7 @@
       <c r="I125" s="220"/>
       <c r="J125" s="220"/>
     </row>
-    <row r="126" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B126" s="141" t="s">
         <v>220</v>
       </c>
@@ -9754,7 +9304,7 @@
       <c r="I126" s="221"/>
       <c r="J126" s="221"/>
     </row>
-    <row r="127" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B127" s="197" t="str">
         <f t="shared" ref="B127:J128" si="23">B15</f>
         <v xml:space="preserve">Fiscal year  </v>
@@ -9792,7 +9342,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B128" s="133" t="str">
         <f t="shared" si="23"/>
         <v>Fiscal year end date</v>
@@ -9830,7 +9380,7 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B129" s="27"/>
       <c r="C129" s="171"/>
       <c r="D129" s="171"/>
@@ -9841,7 +9391,7 @@
       <c r="I129" s="222"/>
       <c r="J129" s="222"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B130" s="60" t="s">
         <v>221</v>
       </c>
@@ -9878,10 +9428,10 @@
         <v>2524.4320585773353</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B131" s="223"/>
     </row>
-    <row r="132" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B132" s="224" t="s">
         <v>197</v>
       </c>
@@ -9889,7 +9439,7 @@
       <c r="D132" s="171"/>
       <c r="E132" s="171"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B133" s="27" t="s">
         <v>222</v>
       </c>
@@ -9923,7 +9473,7 @@
         <v>65648</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B134" s="27" t="s">
         <v>223</v>
       </c>
@@ -9956,7 +9506,7 @@
         <v>3.8454058898631113E-2</v>
       </c>
     </row>
-    <row r="135" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B135" s="208" t="s">
         <v>157</v>
       </c>
@@ -9990,17 +9540,17 @@
         <v>2524.4320585773353</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D136" s="171"/>
     </row>
-    <row r="137" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B137" s="226" t="s">
         <v>224</v>
       </c>
       <c r="D137" s="171"/>
       <c r="E137" s="171"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B138" s="27" t="s">
         <v>225</v>
       </c>
@@ -10034,7 +9584,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B139" s="27" t="s">
         <v>156</v>
       </c>
@@ -10071,7 +9621,7 @@
         <v>5793.1524562460845</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B140" s="228"/>
       <c r="C140" s="57"/>
       <c r="D140" s="57"/>
@@ -10079,7 +9629,7 @@
       <c r="F140" s="57"/>
       <c r="G140" s="57"/>
     </row>
-    <row r="141" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B141" s="141" t="s">
         <v>226</v>
       </c>
@@ -10092,10 +9642,10 @@
       <c r="I141" s="141"/>
       <c r="J141" s="141"/>
     </row>
-    <row r="142" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B142" s="35"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B143" s="229" t="s">
         <v>227</v>
       </c>
@@ -10106,7 +9656,7 @@
       <c r="G143" s="230"/>
       <c r="H143" s="230"/>
     </row>
-    <row r="144" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C144" s="35"/>
       <c r="D144" s="231" t="s">
         <v>228</v>
@@ -10116,7 +9666,7 @@
       <c r="G144" s="90"/>
       <c r="H144" s="90"/>
     </row>
-    <row r="145" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C145" s="232">
         <f ca="1">F31</f>
         <v>94627.414881043718</v>
@@ -10137,7 +9687,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B146" s="92"/>
       <c r="C146" s="234">
         <v>0.39</v>
@@ -10158,7 +9708,7 @@
         <v>113439.42274643412</v>
       </c>
     </row>
-    <row r="147" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B147" s="236" t="s">
         <v>229</v>
       </c>
@@ -10181,7 +9731,7 @@
         <v>110343.82273494515</v>
       </c>
     </row>
-    <row r="148" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B148" s="236" t="s">
         <v>230</v>
       </c>
@@ -10204,7 +9754,7 @@
         <v>107248.22272345613</v>
       </c>
     </row>
-    <row r="149" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B149" s="236" t="s">
         <v>231</v>
       </c>
@@ -10227,7 +9777,7 @@
         <v>104152.62271196711</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C150" s="234">
         <v>0.37</v>
       </c>
@@ -10247,7 +9797,7 @@
         <v>101057.02270047815</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C151" s="234">
         <v>0.36499999999999999</v>
       </c>
@@ -10267,7 +9817,7 @@
         <v>97961.422688989114</v>
       </c>
     </row>
-    <row r="153" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B153" s="141" t="s">
         <v>232</v>
       </c>
@@ -10280,8 +9830,8 @@
       <c r="I153" s="141"/>
       <c r="J153" s="141"/>
     </row>
-    <row r="154" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="155" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B155" t="s">
         <v>233</v>
       </c>
@@ -10313,7 +9863,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="156" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D156" s="239"/>
       <c r="E156" s="240" t="s">
         <v>235</v>
@@ -10339,7 +9889,7 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="157" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B157" s="27" t="s">
         <v>166</v>
       </c>
@@ -10372,7 +9922,7 @@
       <c r="N157" s="242"/>
       <c r="O157" s="242"/>
     </row>
-    <row r="158" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B158" s="27" t="s">
         <v>167</v>
       </c>
@@ -10405,7 +9955,7 @@
       <c r="N158" s="242"/>
       <c r="O158" s="242"/>
     </row>
-    <row r="159" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B159" s="27" t="s">
         <v>168</v>
       </c>
@@ -10438,7 +9988,7 @@
       <c r="N159" s="242"/>
       <c r="O159" s="242"/>
     </row>
-    <row r="160" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B160" s="27" t="s">
         <v>169</v>
       </c>
@@ -10471,16 +10021,16 @@
       <c r="N160" s="242"/>
       <c r="O160" s="242"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.45">
       <c r="E161" s="243"/>
     </row>
-    <row r="162" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B162" s="208" t="s">
         <v>166</v>
       </c>
       <c r="E162" s="243"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B163" s="244" t="s">
         <v>236</v>
       </c>
@@ -10508,7 +10058,7 @@
         <v>0.15190000000000001</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B164" s="244" t="s">
         <v>146</v>
       </c>
@@ -10536,7 +10086,7 @@
       <c r="O164" s="172"/>
       <c r="P164" s="172"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B165" s="244" t="s">
         <v>238</v>
       </c>
@@ -10567,7 +10117,7 @@
       <c r="O165" s="172"/>
       <c r="P165" s="172"/>
     </row>
-    <row r="166" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B166" s="208" t="s">
         <v>167</v>
       </c>
@@ -10581,7 +10131,7 @@
       <c r="O166" s="172"/>
       <c r="P166" s="172"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B167" s="244" t="s">
         <v>236</v>
       </c>
@@ -10609,7 +10159,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B168" s="244" t="s">
         <v>146</v>
       </c>
@@ -10634,7 +10184,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B169" s="244" t="s">
         <v>238</v>
       </c>
@@ -10662,7 +10212,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="170" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B170" s="208" t="s">
         <v>168</v>
       </c>
@@ -10673,7 +10223,7 @@
       <c r="I170" s="247"/>
       <c r="J170" s="247"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B171" s="244" t="s">
         <v>236</v>
       </c>
@@ -10701,7 +10251,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B172" s="244" t="s">
         <v>146</v>
       </c>
@@ -10726,7 +10276,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B173" s="244" t="s">
         <v>238</v>
       </c>
@@ -10754,7 +10304,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="174" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B174" s="208" t="s">
         <v>169</v>
       </c>
@@ -10765,7 +10315,7 @@
       <c r="I174" s="247"/>
       <c r="J174" s="247"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B175" s="244" t="s">
         <v>236</v>
       </c>
@@ -10793,7 +10343,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B176" s="244" t="s">
         <v>146</v>
       </c>
@@ -10818,7 +10368,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B177" s="244" t="s">
         <v>238</v>
       </c>
@@ -10846,7 +10396,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B179" s="141" t="s">
         <v>239</v>
       </c>
@@ -10859,7 +10409,7 @@
       <c r="I179" s="141"/>
       <c r="J179" s="141"/>
     </row>
-    <row r="180" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B180" s="197" t="str">
         <f t="shared" ref="B180:J181" si="29">B15</f>
         <v xml:space="preserve">Fiscal year  </v>
@@ -10897,7 +10447,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B181" s="133" t="str">
         <f t="shared" si="29"/>
         <v>Fiscal year end date</v>
@@ -10935,14 +10485,14 @@
         <v>47848</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F182" s="172"/>
       <c r="G182" s="172"/>
       <c r="H182" s="172"/>
       <c r="I182" s="195"/>
       <c r="J182" s="195"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>162</v>
       </c>
@@ -10979,7 +10529,7 @@
         <v>167782.27622823761</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
         <v>240</v>
       </c>
@@ -11013,7 +10563,7 @@
         <v>11150.877041866455</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B185" s="35" t="s">
         <v>241</v>
       </c>
@@ -11050,13 +10600,13 @@
         <v>15.046554239481946</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C186" s="66"/>
       <c r="D186" s="66"/>
       <c r="E186" s="66"/>
       <c r="F186" s="171"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
         <v>242</v>
       </c>
@@ -11090,7 +10640,7 @@
         <v>11321.877041866459</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B188" s="35" t="s">
         <v>243</v>
       </c>
@@ -11127,10 +10677,10 @@
         <v>14.819298567526042</v>
       </c>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F189" s="252"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
         <v>244</v>
       </c>
@@ -11155,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
         <v>245</v>
       </c>
@@ -11180,7 +10730,7 @@
         <v>34798.235873653779</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
         <v>246</v>
       </c>
@@ -11204,7 +10754,7 @@
         <v>367.29131249999995</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
         <v>247</v>
       </c>
@@ -11221,7 +10771,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B194" s="257" t="s">
         <v>248</v>
       </c>
@@ -11234,7 +10784,7 @@
       <c r="I194" s="230"/>
       <c r="J194" s="230"/>
     </row>
-    <row r="195" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B195" s="35" t="s">
         <v>249</v>
       </c>
@@ -11264,7 +10814,7 @@
         <v>11135.055034239438</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
         <v>251</v>
       </c>
@@ -11289,7 +10839,7 @@
         <v>94.742877627016526</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
         <v>252</v>
       </c>
@@ -11314,7 +10864,7 @@
         <v>11229.797911866455</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B198" s="35" t="s">
         <v>253</v>
       </c>
@@ -11342,7 +10892,7 @@
         <v>11182.426473052947</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B199" s="257" t="s">
         <v>254</v>
       </c>
@@ -11356,7 +10906,7 @@
       <c r="J199" s="230"/>
       <c r="L199" s="61"/>
     </row>
-    <row r="200" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B200" s="35" t="s">
         <v>162</v>
       </c>
@@ -11393,7 +10943,7 @@
         <v>167782.27622823761</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B201" s="27" t="s">
         <v>255</v>
       </c>
@@ -11426,7 +10976,7 @@
         <v>0.1213876789426831</v>
       </c>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.45">
       <c r="F204" s="252"/>
     </row>
   </sheetData>

--- a/AMZN_DCF_WACC_Model_FY23-30.xlsx
+++ b/AMZN_DCF_WACC_Model_FY23-30.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89228090-BC71-4FD0-9FC3-07B1F6104741}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{226BCD0F-2437-4C8A-9873-F9CE86B33DF7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{226BCD0F-2437-4C8A-9873-F9CE86B33DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrated DCF" sheetId="1" r:id="rId1"/>
@@ -3386,7 +3386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A590DBED-74BF-4BDC-961D-03486890574C}">
   <dimension ref="B1:Q132"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5647,6 +5647,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D32" formulaRange="1"/>
+    <ignoredError sqref="D71" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6205,7 +6206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D7A6A-1A5E-4A59-8698-23B6EA127917}">
   <dimension ref="B1:P204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/AMZN_DCF_WACC_Model_FY23-30.xlsx
+++ b/AMZN_DCF_WACC_Model_FY23-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89228090-BC71-4FD0-9FC3-07B1F6104741}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{338D0C0B-3540-4CAD-AB63-7D7C5F3A1C2C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{226BCD0F-2437-4C8A-9873-F9CE86B33DF7}"/>
   </bookViews>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="264">
   <si>
     <t>Discounted Cash Flow Valuation</t>
   </si>
@@ -676,9 +676,6 @@
   </si>
   <si>
     <t>Industry average delevered beta</t>
-  </si>
-  <si>
-    <t>$ in thousands except per share</t>
   </si>
   <si>
     <t>Company name</t>
@@ -1083,6 +1080,12 @@
   </si>
   <si>
     <t>FY 2026 10k</t>
+  </si>
+  <si>
+    <t>$ and shares in millions, except per share data</t>
+  </si>
+  <si>
+    <t>$ mm except per share</t>
   </si>
 </sst>
 </file>
@@ -3415,9 +3418,8 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="str">
-        <f>'[1]Financials '!$B$3</f>
-        <v xml:space="preserve">$ and shares in millions, except per share data </v>
+      <c r="B3" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
@@ -4399,7 +4401,7 @@
         <v>57</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.45">
@@ -4429,7 +4431,7 @@
         <v>62</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H56" s="8">
         <v>46022</v>
@@ -4451,7 +4453,7 @@
         <v>64</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H57" s="8">
         <v>46022</v>
@@ -5681,9 +5683,8 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="str">
-        <f>'[1]Financials '!$B$3</f>
-        <v xml:space="preserve">$ and shares in millions, except per share data </v>
+      <c r="B3" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
@@ -5708,7 +5709,7 @@
         <v>3.9879999999999999E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
@@ -5743,7 +5744,7 @@
         <v>3.6110000000000003E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
@@ -5766,7 +5767,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
@@ -5990,7 +5991,7 @@
         <v>1.38</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.45">
@@ -6074,7 +6075,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" s="169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" s="67">
         <v>1.0900000000000001</v>
@@ -6103,7 +6104,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" s="169" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" s="67">
         <v>0.67</v>
@@ -6236,7 +6237,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="176" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="C3" s="177"/>
       <c r="D3" s="177"/>
@@ -6246,23 +6247,23 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="145" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="178" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="178" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="145" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="178" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" s="178" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="179">
         <v>1</v>
@@ -6270,7 +6271,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="180">
         <v>198.79</v>
@@ -6278,7 +6279,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="181">
         <v>46066</v>
@@ -6286,7 +6287,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="182">
         <v>46022</v>
@@ -6294,7 +6295,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="183">
         <v>10734.92087</v>
@@ -6302,10 +6303,10 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="179" t="s">
         <v>145</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -6314,7 +6315,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="133"/>
       <c r="D14" s="133"/>
@@ -6327,7 +6328,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="184">
         <f>D15-1</f>
@@ -6364,7 +6365,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="186" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="187">
         <f>EOMONTH(D16,-12)</f>
@@ -6447,7 +6448,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="66">
         <f>-(304739+90619)</f>
@@ -6484,7 +6485,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="192">
         <f>SUM(C18:C19)</f>
@@ -6522,7 +6523,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="66">
         <v>-85622</v>
@@ -6557,7 +6558,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="66">
         <f>(44370+11816)*-1</f>
@@ -6595,7 +6596,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="66">
         <v>-767</v>
@@ -6630,7 +6631,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="192">
         <f>SUM(C20:C23)</f>
@@ -6668,7 +6669,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="66">
         <v>2949</v>
@@ -6702,7 +6703,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="66">
         <v>-3182</v>
@@ -6736,7 +6737,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="66">
         <v>938</v>
@@ -6770,7 +6771,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B28" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="192">
         <f>SUM(C24:C27)</f>
@@ -6809,7 +6810,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="66">
         <v>-7120</v>
@@ -6843,7 +6844,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C30" s="66">
         <v>-12</v>
@@ -6862,7 +6863,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B31" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="192">
         <f>SUM(C28:C30)</f>
@@ -6983,7 +6984,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B35" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="66">
         <v>24023</v>
@@ -7017,7 +7018,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B36" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="192">
         <f>SUM(C34:C35)</f>
@@ -7059,12 +7060,12 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B38" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B39" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="195"/>
       <c r="D39" s="195">
@@ -7101,7 +7102,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B40" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="195">
         <f>C20/C18</f>
@@ -7141,7 +7142,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B41" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="195">
         <f>-C21/C18</f>
@@ -7181,7 +7182,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B42" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="195">
         <f>-C22/C18</f>
@@ -7262,7 +7263,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B45" s="141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="196"/>
       <c r="D45" s="196"/>
@@ -7345,7 +7346,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="66"/>
       <c r="D48" s="66">
@@ -7379,7 +7380,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="66"/>
       <c r="D49" s="66">
@@ -7411,7 +7412,7 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="66">
@@ -7443,7 +7444,7 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" s="66"/>
       <c r="D51" s="66">
@@ -7475,7 +7476,7 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="66"/>
       <c r="D52" s="66">
@@ -7509,7 +7510,7 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" s="192"/>
       <c r="D53" s="192">
@@ -7554,7 +7555,7 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B55" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="66"/>
       <c r="D55" s="66">
@@ -7586,7 +7587,7 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B56" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="66"/>
       <c r="D56" s="66">
@@ -7618,7 +7619,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B57" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="66"/>
       <c r="D57" s="66">
@@ -7650,7 +7651,7 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B58" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" s="66"/>
       <c r="D58" s="66">
@@ -7682,7 +7683,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B59" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="66">
@@ -7714,7 +7715,7 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B60" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="66"/>
       <c r="D60" s="66">
@@ -7746,7 +7747,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B61" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" s="192"/>
       <c r="D61" s="192">
@@ -7791,7 +7792,7 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B63" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" s="66"/>
       <c r="D63" s="66">
@@ -7823,7 +7824,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B64" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="66"/>
       <c r="D64" s="66">
@@ -7855,7 +7856,7 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B65" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="66"/>
       <c r="D65" s="66">
@@ -7887,7 +7888,7 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B66" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="66">
@@ -7919,7 +7920,7 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B67" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C67" s="66"/>
       <c r="D67" s="66">
@@ -7951,7 +7952,7 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B68" s="71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C68" s="78"/>
       <c r="D68" s="78">
@@ -7990,7 +7991,7 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B70" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" s="201"/>
       <c r="D70" s="201">
@@ -8032,7 +8033,7 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B72" s="141" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="196"/>
       <c r="D72" s="196"/>
@@ -8103,7 +8104,7 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" s="202"/>
       <c r="D76" s="202"/>
@@ -8132,7 +8133,7 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" s="202"/>
       <c r="D77" s="202"/>
@@ -8160,7 +8161,7 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="202"/>
       <c r="D78" s="202"/>
@@ -8188,7 +8189,7 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79" s="171"/>
       <c r="D79" s="171"/>
@@ -8216,7 +8217,7 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" s="171"/>
       <c r="D80" s="171"/>
@@ -8244,7 +8245,7 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F81" s="171">
         <f ca="1">-F115</f>
@@ -8269,7 +8270,7 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F82" s="171">
         <f ca="1">F60-E60</f>
@@ -8295,7 +8296,7 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B83" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F83" s="78">
         <f ca="1">SUM(F76:F82)</f>
@@ -8352,7 +8353,7 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B86" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F86" s="78">
         <f>IFERROR(F85,"NA")</f>
@@ -8384,7 +8385,7 @@
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F88" s="171">
         <f>F58-E58</f>
@@ -8409,7 +8410,7 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F89" s="171">
         <f>F59-E59</f>
@@ -8434,7 +8435,7 @@
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F90" s="171">
         <f>F122</f>
@@ -8459,7 +8460,7 @@
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F91" s="171">
         <f>F121</f>
@@ -8484,7 +8485,7 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B92" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F92" s="78">
         <f>SUM(F88:F91)</f>
@@ -8516,7 +8517,7 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B94" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F94" s="78">
         <f ca="1">F83+F86+F92</f>
@@ -8541,7 +8542,7 @@
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B96" s="141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C96" s="133"/>
       <c r="D96" s="133"/>
@@ -8631,7 +8632,7 @@
     <row r="99" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B99" s="35"/>
       <c r="F99" s="203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G99" s="203"/>
       <c r="H99" s="203"/>
@@ -8640,7 +8641,7 @@
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B100" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F100" s="171">
         <f>E103</f>
@@ -8665,7 +8666,7 @@
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B101" s="204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C101" s="66">
         <v>52729</v>
@@ -8696,7 +8697,7 @@
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B102" s="205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C102" s="206">
         <v>-30200</v>
@@ -8730,7 +8731,7 @@
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B103" s="208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103" s="78"/>
       <c r="D103" s="78">
@@ -8765,12 +8766,12 @@
     <row r="104" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B104" s="60"/>
       <c r="L104" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B105" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C105" s="152">
         <f>-(C102/C101)</f>
@@ -8827,7 +8828,7 @@
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B107" s="211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C107" s="212"/>
       <c r="D107" s="212"/>
@@ -8843,7 +8844,7 @@
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B108" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C108" s="171">
         <f>C110+C102</f>
@@ -8920,7 +8921,7 @@
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B110" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C110" s="78">
         <f>C33</f>
@@ -8967,7 +8968,7 @@
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B112" s="214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C112" s="133"/>
       <c r="D112" s="133"/>
@@ -8979,7 +8980,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B113" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C113" s="171"/>
       <c r="F113" s="215">
@@ -9005,7 +9006,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B114" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F114" s="171">
         <f ca="1">-(F108)</f>
@@ -9030,7 +9031,7 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B115" s="216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
@@ -9058,7 +9059,7 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B116" s="208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D116" s="78">
         <f t="shared" ref="D116:J116" si="20">D52</f>
@@ -9100,7 +9101,7 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B118" s="218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C118" s="214"/>
       <c r="D118" s="214"/>
@@ -9113,7 +9114,7 @@
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B119" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F119" s="171">
         <f>E123</f>
@@ -9138,7 +9139,7 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B120" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C120" s="42">
         <f t="shared" ref="C120:J120" si="21">C31</f>
@@ -9175,7 +9176,7 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B121" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C121" s="66">
         <v>0</v>
@@ -9209,7 +9210,7 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B122" s="216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C122" s="206">
         <v>0</v>
@@ -9243,7 +9244,7 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B123" s="208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C123" s="192">
         <f>C66</f>
@@ -9294,7 +9295,7 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B126" s="141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C126" s="212"/>
       <c r="D126" s="212"/>
@@ -9394,7 +9395,7 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B130" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C130" s="171">
         <f>-(C26)</f>
@@ -9434,7 +9435,7 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B132" s="224" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C132" s="171"/>
       <c r="D132" s="171"/>
@@ -9442,7 +9443,7 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B133" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C133" s="171"/>
       <c r="D133" s="171">
@@ -9476,7 +9477,7 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B134" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D134" s="57">
         <f t="shared" ref="D134" si="26">D135/AVERAGE(C133:D133)</f>
@@ -9509,7 +9510,7 @@
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B135" s="208" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C135" s="78"/>
       <c r="D135" s="78">
@@ -9546,14 +9547,14 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B137" s="226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D137" s="171"/>
       <c r="E137" s="171"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B138" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C138" s="146">
         <v>0.03</v>
@@ -9587,7 +9588,7 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B139" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C139" s="171">
         <f>C25</f>
@@ -9632,7 +9633,7 @@
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B141" s="141" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C141" s="141"/>
       <c r="D141" s="141"/>
@@ -9648,7 +9649,7 @@
     </row>
     <row r="143" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B143" s="229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C143" s="230"/>
       <c r="D143" s="230"/>
@@ -9660,7 +9661,7 @@
     <row r="144" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C144" s="35"/>
       <c r="D144" s="231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E144" s="90"/>
       <c r="F144" s="90"/>
@@ -9711,7 +9712,7 @@
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B147" s="236" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C147" s="234">
         <v>0.38500000000000001</v>
@@ -9734,7 +9735,7 @@
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B148" s="236" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C148" s="234">
         <v>0.38</v>
@@ -9757,7 +9758,7 @@
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B149" s="236" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C149" s="234">
         <v>0.375</v>
@@ -9820,7 +9821,7 @@
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B153" s="141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C153" s="141"/>
       <c r="D153" s="141"/>
@@ -9834,14 +9835,14 @@
     <row r="154" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="155" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C155" s="237" t="str">
         <f>C12</f>
         <v>Base case</v>
       </c>
       <c r="E155" s="238" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F155" s="199">
         <f t="shared" ref="F155:J156" si="27">F15</f>
@@ -9867,7 +9868,7 @@
     <row r="156" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D156" s="239"/>
       <c r="E156" s="240" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F156" s="200">
         <f t="shared" si="27"/>
@@ -9892,7 +9893,7 @@
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B157" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E157" s="241" t="str">
         <f t="shared" ref="E157:J160" ca="1" si="28">OFFSET(E$162,MATCH($C$12,$B$163:$B$165,0)+MATCH($B157,$B$162:$B$177,0)-1,0)</f>
@@ -9925,7 +9926,7 @@
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B158" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E158" s="241" t="str">
         <f t="shared" ca="1" si="28"/>
@@ -9958,7 +9959,7 @@
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B159" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E159" s="241" t="str">
         <f t="shared" ca="1" si="28"/>
@@ -9991,7 +9992,7 @@
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B160" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E160" s="241" t="str">
         <f t="shared" ca="1" si="28"/>
@@ -10027,13 +10028,13 @@
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B162" s="208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E162" s="243"/>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B163" s="244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E163" s="245">
         <v>2.5000000000000001E-2</v>
@@ -10061,10 +10062,10 @@
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B164" s="244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E164" s="246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F164" s="172">
         <v>0.1229</v>
@@ -10089,7 +10090,7 @@
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B165" s="244" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E165" s="245">
         <v>-2.5000000000000001E-2</v>
@@ -10120,7 +10121,7 @@
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B166" s="208" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E166" s="246"/>
       <c r="F166" s="172"/>
@@ -10134,7 +10135,7 @@
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B167" s="244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E167" s="245">
         <v>0.01</v>
@@ -10162,10 +10163,10 @@
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B168" s="244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E168" s="246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F168" s="172">
         <v>0.35099999999999998</v>
@@ -10187,7 +10188,7 @@
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B169" s="244" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E169" s="245">
         <v>-0.01</v>
@@ -10215,7 +10216,7 @@
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B170" s="208" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E170" s="246"/>
       <c r="F170" s="247"/>
@@ -10226,7 +10227,7 @@
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B171" s="244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E171" s="245">
         <v>-0.01</v>
@@ -10254,10 +10255,10 @@
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B172" s="244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E172" s="246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F172" s="172">
         <v>0.15</v>
@@ -10279,7 +10280,7 @@
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B173" s="244" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E173" s="245">
         <v>0.01</v>
@@ -10307,7 +10308,7 @@
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B174" s="208" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E174" s="246"/>
       <c r="F174" s="247"/>
@@ -10318,7 +10319,7 @@
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B175" s="244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E175" s="245">
         <v>-0.01</v>
@@ -10346,10 +10347,10 @@
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B176" s="244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E176" s="246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F176" s="172">
         <v>7.5899999999999995E-2</v>
@@ -10371,7 +10372,7 @@
     </row>
     <row r="177" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B177" s="244" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E177" s="248">
         <v>0.01</v>
@@ -10399,7 +10400,7 @@
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B179" s="141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C179" s="141"/>
       <c r="D179" s="141"/>
@@ -10495,7 +10496,7 @@
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C183" s="249">
         <f t="shared" ref="C183:J183" si="30">C31</f>
@@ -10532,7 +10533,7 @@
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C184" s="250">
         <v>10304</v>
@@ -10566,7 +10567,7 @@
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B185" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C185" s="251">
         <f t="shared" ref="C185:J185" si="32">C183/C184</f>
@@ -10609,7 +10610,7 @@
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C187" s="250">
         <v>10492</v>
@@ -10643,7 +10644,7 @@
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B188" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C188" s="251">
         <f>C183/C187</f>
@@ -10683,7 +10684,7 @@
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F190" s="249">
         <f>-(F122)</f>
@@ -10708,7 +10709,7 @@
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F191" s="253">
         <f ca="1">F35</f>
@@ -10733,7 +10734,7 @@
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F192" s="254">
         <v>210</v>
@@ -10757,7 +10758,7 @@
     </row>
     <row r="193" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G193" s="256">
         <v>0.15</v>
@@ -10774,7 +10775,7 @@
     </row>
     <row r="194" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B194" s="257" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C194" s="230"/>
       <c r="D194" s="230"/>
@@ -10787,12 +10788,12 @@
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B195" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
       <c r="E195" s="92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F195" s="258">
         <f>C11</f>
@@ -10817,7 +10818,7 @@
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F196" s="249">
         <f ca="1">(-F190+F191)/F192</f>
@@ -10842,7 +10843,7 @@
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F197" s="249">
         <f ca="1">SUM(F195:F196)</f>
@@ -10867,7 +10868,7 @@
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B198" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C198" s="35"/>
       <c r="D198" s="35"/>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="199" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B199" s="257" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C199" s="230"/>
       <c r="D199" s="230"/>
@@ -10909,7 +10910,7 @@
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B200" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C200" s="259">
         <f t="shared" ref="C200:J200" si="39">C31</f>
@@ -10946,7 +10947,7 @@
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B201" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D201" s="260">
         <f>D200/C200-1</f>

--- a/AMZN_DCF_WACC_Model_FY23-30.xlsx
+++ b/AMZN_DCF_WACC_Model_FY23-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{338D0C0B-3540-4CAD-AB63-7D7C5F3A1C2C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A04AB59-7DE9-4063-93D0-5652047DD89F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{226BCD0F-2437-4C8A-9873-F9CE86B33DF7}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="WACC Buildup" sheetId="2" r:id="rId2"/>
     <sheet name="3SFM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2997,75 +2994,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Financials "/>
-      <sheetName val="Simple DCF Empty"/>
-      <sheetName val="Simple DCF Done"/>
-      <sheetName val="WACC Empty"/>
-      <sheetName val="WACC Done"/>
-      <sheetName val="Shares Empty"/>
-      <sheetName val="Shares"/>
-      <sheetName val="DCF 1-Pager"/>
-      <sheetName val="2019 FSM Update Complete"/>
-      <sheetName val="Integrated DCF Empty"/>
-      <sheetName val="Integrated DCF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v xml:space="preserve">$ and shares in millions, except per share data </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="25">
-          <cell r="E25">
-            <v>14543</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>-14543</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>34654</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>-34654</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="128">
-          <cell r="B128" t="str">
-            <v>DCF Value at 11.0x-15.0x Exit EBITDA Range at 9.0% WACC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -4468,7 +4396,6 @@
         <v>65</v>
       </c>
       <c r="C58" s="68">
-        <f>[1]Shares!E25+[1]Shares!E31</f>
         <v>0</v>
       </c>
       <c r="E58" s="60" t="s">
@@ -4485,7 +4412,6 @@
         <v>67</v>
       </c>
       <c r="C59" s="68">
-        <f>[1]Shares!E34+[1]Shares!E41</f>
         <v>0</v>
       </c>
       <c r="E59" t="s">

--- a/AMZN_DCF_WACC_Model_FY23-30.xlsx
+++ b/AMZN_DCF_WACC_Model_FY23-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A04AB59-7DE9-4063-93D0-5652047DD89F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{362E7136-DF58-44B5-9987-795E9E73DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9CE47D2-B507-4FEF-95AB-670077E658D9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{226BCD0F-2437-4C8A-9873-F9CE86B33DF7}"/>
   </bookViews>
@@ -3317,18 +3317,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A590DBED-74BF-4BDC-961D-03486890574C}">
   <dimension ref="B1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.46484375" customWidth="1"/>
     <col min="2" max="2" width="52.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="8" max="8" width="10.9296875" customWidth="1"/>
     <col min="9" max="9" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
